--- a/va_facility_data_2025-02-20/Beckley VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Beckley%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Beckley VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Beckley%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rce709d2fb98d491691beef35deb5b028"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Reed4edec2c4a4321b3f89305fb69f810"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1f29f77f1b194a439b735932ec3c1e38"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9e0ecf5156d343418fdef76a8335d038"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra21939dfd08342c4b7c63cf0eab40bd3"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R70d88973752444c0b69a1fce26285d79"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R690d02a10629497da8b82c5782770110"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3cfd91e04ce3415c95b07df59005e193"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R742f1ff1a3454319b67bd1e2e816a777"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R633d933486184a909aa682b477526d2a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R138a3baef0684eca940687ec28135c08"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R95c63a1bad7c4037b1a162ad66eb180d"/>
   </x:sheets>
 </x:workbook>
 </file>
